--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>TrialName</t>
   </si>
@@ -241,6 +241,564 @@
   </si>
   <si>
     <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>MotTof</t>
+  </si>
+  <si>
+    <t>A general test.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>GmTof</t>
+  </si>
+  <si>
+    <t>A general test.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>D1Tof</t>
+  </si>
+  <si>
+    <t>A general test.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>OdtTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBecDivisor</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBecDivisor</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBec</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBec</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>Odt</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>Odt</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>EvapD</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>EvapD</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>EvapD</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>EvapDCameraOdt</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>OdtCameraOdt</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>Odt</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>EvapDToOdtDummy</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>OdtHoldTime</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>ODTHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>ODTHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>ODThold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
   </si>
   <si>
     <t>StrongLight</t>
@@ -570,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -578,16 +1136,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="true"/>
-    <col min="2" max="2" width="36.3125" customWidth="true"/>
-    <col min="3" max="3" width="14.578125" customWidth="true"/>
-    <col min="4" max="4" width="10.046875" customWidth="true"/>
-    <col min="5" max="5" width="7.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.98046875" customWidth="true"/>
-    <col min="7" max="7" width="31.11328125" customWidth="true"/>
-    <col min="8" max="8" width="19.11328125" customWidth="true"/>
-    <col min="9" max="9" width="11.77734375" customWidth="true"/>
-    <col min="10" max="10" width="10.1796875" customWidth="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="true"/>
+    <col min="2" max="2" width="40.42578125" customWidth="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="5" max="5" width="8" customWidth="true"/>
+    <col min="6" max="6" width="17.85546875" customWidth="true"/>
+    <col min="7" max="7" width="35.140625" customWidth="true"/>
+    <col min="8" max="8" width="21.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13" customWidth="true"/>
+    <col min="10" max="10" width="19" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -745,6 +1303,416 @@
       </c>
       <c r="J5" s="0" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="0">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="0">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="0">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="0">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="0">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="0">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="0">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="0">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="0">
+        <v>4</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="0">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="0">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="0">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="439">
   <si>
     <t>TrialName</t>
   </si>
@@ -1291,6 +1291,63 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>CMotTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after MOT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>CMotTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after MOT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
@@ -1625,20 +1682,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="true"/>
-    <col min="2" max="2" width="55.875" customWidth="true"/>
-    <col min="3" max="3" width="15" customWidth="true"/>
-    <col min="4" max="4" width="14.125" customWidth="true"/>
-    <col min="5" max="5" width="7.625" customWidth="true"/>
-    <col min="6" max="6" width="16.625" customWidth="true"/>
-    <col min="7" max="7" width="31.25" customWidth="true"/>
-    <col min="8" max="8" width="19.75" customWidth="true"/>
-    <col min="9" max="9" width="12.625" customWidth="true"/>
+    <col min="1" max="1" width="18.25" customWidth="true"/>
+    <col min="2" max="2" width="55" customWidth="true"/>
+    <col min="3" max="3" width="14.75" customWidth="true"/>
+    <col min="4" max="4" width="14.375" customWidth="true"/>
+    <col min="5" max="5" width="8" customWidth="true"/>
+    <col min="6" max="6" width="17" customWidth="true"/>
+    <col min="7" max="7" width="31.625" customWidth="true"/>
+    <col min="8" max="8" width="19.375" customWidth="true"/>
+    <col min="9" max="9" width="12.25" customWidth="true"/>
     <col min="10" max="10" width="17.625" customWidth="true"/>
-    <col min="11" max="11" width="7.5" customWidth="true"/>
-    <col min="12" max="12" width="18.625" customWidth="true"/>
-    <col min="13" max="13" width="16.375" customWidth="true"/>
-    <col min="14" max="14" width="14.875" customWidth="true"/>
+    <col min="11" max="11" width="7.625" customWidth="true"/>
+    <col min="12" max="12" width="19.875" customWidth="true"/>
+    <col min="13" max="13" width="16" customWidth="true"/>
+    <col min="14" max="14" width="14.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.4">
@@ -2334,6 +2391,48 @@
       </c>
       <c r="N16" s="0" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="0">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="K17" s="0">
+        <v>8</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="M17" s="0">
+        <v>30</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="461">
   <si>
     <t>TrialName</t>
   </si>
@@ -1348,6 +1348,72 @@
   </si>
   <si>
     <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>EvapDD1PumpTime</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>D1PumpTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecTof</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>AtomNumber;CenterFit;Tof;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
@@ -2435,6 +2501,94 @@
         <v>429</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" s="0">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K18" s="0">
+        <v>8</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="M18" s="0">
+        <v>30</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="0">
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="K19" s="0">
+        <v>8</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="M19" s="0">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>TrialName</t>
   </si>
@@ -882,6 +882,171 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBec</t>
+  </si>
+  <si>
+    <t>A TOF experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>CenterFit;AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>CenterFit;AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
@@ -2099,46 +2264,134 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="E21" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="K21" s="0">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="M21" s="0">
         <v>1</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>261</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="0">
+        <v>4</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="K22" s="0">
+        <v>8</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="M22" s="0">
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="0">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" s="0">
+        <v>8</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M23" s="0">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t>TrialName</t>
   </si>
@@ -1029,6 +1029,369 @@
   </si>
   <si>
     <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>A TOF experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBec</t>
+  </si>
+  <si>
+    <t>A TOF experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecFeshbachField2</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI feshbach field</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecFeshbachField2</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI feshbach field</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBec</t>
+  </si>
+  <si>
+    <t>A TOF experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber</t>
@@ -1373,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
@@ -1381,8 +1744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="true"/>
-    <col min="2" max="2" width="59.28515625" customWidth="true"/>
+    <col min="1" max="1" width="20" customWidth="true"/>
+    <col min="2" max="2" width="67.85546875" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="15" customWidth="true"/>
     <col min="5" max="5" width="8" customWidth="true"/>
@@ -2264,46 +2627,46 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>319</v>
+        <v>407</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="E21" s="0">
         <v>4</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="K21" s="0">
         <v>8</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="M21" s="0">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22">
@@ -2352,46 +2715,178 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>295</v>
+        <v>438</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>297</v>
+        <v>440</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>298</v>
+        <v>441</v>
       </c>
       <c r="E23" s="0">
         <v>4</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>299</v>
+        <v>442</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="K23" s="0">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>305</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" s="0">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K24" s="0">
+        <v>8</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="0">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="K25" s="0">
+        <v>8</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E26" s="0">
+        <v>4</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="K26" s="0">
+        <v>8</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
   <si>
     <t>TrialName</t>
   </si>
@@ -1410,6 +1410,699 @@
   </si>
   <si>
     <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapB</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage A.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapC</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage B.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Checking at high power kp2vva 5 center fit.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experiment at the non-interacting lattice stage. </t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>A TOF experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBec</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvNi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>XV_NI</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvNi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan XV_NI</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>XV_NI</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKdPulse</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>KapitzaDirac</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKdPulse</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Pulsed on Kapitza Dirac.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>KapitzaDirac</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBo</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBo</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransfer</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransfer</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
@@ -1846,47 +2539,47 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="0">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3">
+      <c r="F3" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="K3" s="0">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>97</v>
+      <c r="L3" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="M3" s="0">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="4">
@@ -2671,90 +3364,90 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>328</v>
+        <v>559</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>329</v>
+        <v>560</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>330</v>
+        <v>561</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>331</v>
+        <v>562</v>
       </c>
       <c r="E22" s="0">
         <v>4</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>332</v>
+        <v>563</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>333</v>
+        <v>564</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>334</v>
+        <v>565</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>335</v>
+        <v>566</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>336</v>
+        <v>567</v>
       </c>
       <c r="K22" s="0">
         <v>8</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>337</v>
+        <v>568</v>
       </c>
       <c r="M22" s="0">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>338</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>438</v>
+        <v>570</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>439</v>
+        <v>571</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>440</v>
+        <v>572</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>441</v>
+        <v>573</v>
       </c>
       <c r="E23" s="0">
         <v>4</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>442</v>
+        <v>574</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>443</v>
+        <v>575</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>444</v>
+        <v>576</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>445</v>
+        <v>577</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>446</v>
+        <v>578</v>
       </c>
       <c r="K23" s="0">
         <v>8</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>447</v>
+        <v>579</v>
       </c>
       <c r="M23" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>448</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24">
@@ -2847,46 +3540,398 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="E26" s="0">
         <v>4</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="K26" s="0">
         <v>8</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>458</v>
+        <v>535</v>
       </c>
       <c r="M26" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>459</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="0">
+        <v>4</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="K27" s="0">
+        <v>8</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="M27" s="0">
+        <v>30</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="0">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="K28" s="0">
+        <v>8</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="M28" s="0">
+        <v>30</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E29" s="0">
+        <v>4</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="K29" s="0">
+        <v>8</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="M29" s="0">
+        <v>30</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" s="0">
+        <v>4</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="K30" s="0">
+        <v>8</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E31" s="0">
+        <v>4</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="K31" s="0">
+        <v>8</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E32" s="0">
+        <v>4</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="K32" s="0">
+        <v>8</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E33" s="0">
+        <v>4</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="K33" s="0">
+        <v>8</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E34" s="0">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="K34" s="0">
+        <v>8</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C658E-FFCC-4B51-9C87-9750C6A06345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="417">
   <si>
     <t>TrialName</t>
   </si>
@@ -1149,6 +1149,138 @@
   </si>
   <si>
     <t>CloudCenterReference</t>
+  </si>
+  <si>
+    <t>NiLatticeBandMap</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDD1Freq</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBandMap</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Ramp down the lattice at the end and do TOF for band mappping</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D. Scan IMC frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>IMCDetuning</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1187,12 +1319,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,32 +1607,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="true"/>
+    <col min="2" max="2" width="103" customWidth="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="5" max="5" width="21.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8" customWidth="true"/>
+    <col min="7" max="7" width="17.85546875" customWidth="true"/>
+    <col min="8" max="8" width="35.140625" customWidth="true"/>
+    <col min="9" max="9" width="21.42578125" customWidth="true"/>
+    <col min="10" max="10" width="13" customWidth="true"/>
+    <col min="11" max="11" width="19" customWidth="true"/>
+    <col min="12" max="12" width="7.85546875" customWidth="true"/>
+    <col min="13" max="13" width="20.42578125" customWidth="true"/>
+    <col min="14" max="14" width="17.42578125" customWidth="true"/>
+    <col min="15" max="15" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -1630,7 +1764,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1712,7 +1846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1753,7 +1887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1797,7 +1931,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1841,7 +1975,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -1885,7 +2019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1929,7 +2063,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1973,7 +2107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2061,7 +2195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2105,7 +2239,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2149,7 +2283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -2193,7 +2327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -2234,7 +2368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -2278,7 +2412,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -2322,7 +2456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -2366,7 +2500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -2410,7 +2544,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22">
       <c r="A22" t="s">
         <v>295</v>
       </c>
@@ -2454,7 +2588,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23">
       <c r="A23" t="s">
         <v>306</v>
       </c>
@@ -2498,7 +2632,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -2542,7 +2676,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -2586,7 +2720,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -2630,7 +2764,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -2674,7 +2808,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -2718,7 +2852,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -2762,7 +2896,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -2806,7 +2940,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31">
       <c r="A31" t="s">
         <v>317</v>
       </c>
@@ -2850,7 +2984,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -2897,7 +3031,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33">
       <c r="A33" t="s">
         <v>350</v>
       </c>
@@ -2941,7 +3075,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34">
       <c r="A34" t="s">
         <v>361</v>
       </c>
@@ -2983,6 +3117,141 @@
       </c>
       <c r="O34" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0">
+        <v>4</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="L35" s="0">
+        <v>8</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="N35" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="L36" s="0">
+        <v>8</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="N36" s="0">
+        <v>30</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0">
+        <v>4</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="L37" s="0">
+        <v>8</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="N37" s="0">
+        <v>30</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>TrialName</t>
   </si>
@@ -1281,6 +1281,39 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvramptime</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. Lattice hold is  fixed. Scan Xv ramp time.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>xvramptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -3254,6 +3287,51 @@
         <v>416</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0">
+        <v>4</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="L38" s="0">
+        <v>12</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="N38" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="511">
   <si>
     <t>TrialName</t>
   </si>
@@ -1314,6 +1314,255 @@
   </si>
   <si>
     <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>MotTof</t>
+  </si>
+  <si>
+    <t>A TOF experiment after MOT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiSlosh</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>EvapDPlugvva</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDPlugvva</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>plugvva</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDGMtime</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>GMtime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDGMtime</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D. Scan GM time.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>GMtime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan XV_NI</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -1798,44 +2047,48 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="A4" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="0">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="L4" s="0">
+        <v>8</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="N4" s="0">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
+      <c r="O4" s="0" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="5">
@@ -2534,47 +2787,50 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" t="s">
-        <v>212</v>
-      </c>
-      <c r="I21" t="s">
-        <v>213</v>
-      </c>
-      <c r="J21" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" t="s">
-        <v>215</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21" t="s">
-        <v>216</v>
-      </c>
-      <c r="N21">
-        <v>0.2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>217</v>
+      <c r="A21" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="0">
+        <v>4</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="L21" s="0">
+        <v>8</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22">
@@ -3330,6 +3586,147 @@
       </c>
       <c r="O38" s="0" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="F39" s="0">
+        <v>4</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="L39" s="0">
+        <v>8</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="N39" s="0">
+        <v>30</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F40" s="0">
+        <v>4</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="L40" s="0">
+        <v>8</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="N40" s="0">
+        <v>20</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F41" s="0">
+        <v>4</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="L41" s="0">
+        <v>8</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="N41" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="667">
   <si>
     <t>TrialName</t>
   </si>
@@ -1545,6 +1545,474 @@
   </si>
   <si>
     <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapD</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage B.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapD</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapC</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage C.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapB</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage B.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage A.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransferBM</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransferBM</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan XV_NI</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -1889,7 +2357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -3054,135 +3522,144 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" t="s">
-        <v>245</v>
-      </c>
-      <c r="I27" t="s">
-        <v>246</v>
-      </c>
-      <c r="J27" t="s">
-        <v>247</v>
-      </c>
-      <c r="K27" t="s">
-        <v>248</v>
-      </c>
-      <c r="L27">
+      <c r="A27" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="F27" s="0">
+        <v>4</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="L27" s="0">
         <v>8</v>
       </c>
-      <c r="M27" t="s">
-        <v>249</v>
-      </c>
-      <c r="N27">
+      <c r="M27" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="N27" s="0">
         <v>30</v>
       </c>
-      <c r="O27" t="s">
-        <v>250</v>
+      <c r="O27" s="0" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>255</v>
-      </c>
-      <c r="H28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J28" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" t="s">
-        <v>259</v>
-      </c>
-      <c r="L28">
+      <c r="A28" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" s="0">
+        <v>4</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="L28" s="0">
         <v>8</v>
       </c>
-      <c r="M28" t="s">
-        <v>260</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="N28" s="0">
         <v>30</v>
       </c>
-      <c r="O28" t="s">
-        <v>261</v>
+      <c r="O28" s="0" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I29" t="s">
-        <v>268</v>
-      </c>
-      <c r="J29" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" t="s">
-        <v>270</v>
-      </c>
-      <c r="L29">
+      <c r="A29" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F29" s="0">
+        <v>4</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="L29" s="0">
         <v>8</v>
       </c>
-      <c r="M29" t="s">
-        <v>271</v>
-      </c>
-      <c r="N29">
+      <c r="M29" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="N29" s="0">
         <v>30</v>
       </c>
-      <c r="O29" t="s">
-        <v>272</v>
+      <c r="O29" s="0" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="30">
@@ -3727,6 +4204,241 @@
       </c>
       <c r="O41" s="0" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F42" s="0">
+        <v>4</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="L42" s="0">
+        <v>8</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="N42" s="0">
+        <v>30</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="F43" s="0">
+        <v>4</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="L43" s="0">
+        <v>8</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="F44" s="0">
+        <v>4</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="L44" s="0">
+        <v>8</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="N44" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="F45" s="0">
+        <v>4</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="L45" s="0">
+        <v>8</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="N45" s="0">
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="F46" s="0">
+        <v>4</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="L46" s="0">
+        <v>8</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="N46" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
   <si>
     <t>TrialName</t>
   </si>
@@ -1812,6 +1812,186 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDScanRFVVA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeDriveStrengthBM</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeFeshbachField2</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeFeshbachField2Bm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
@@ -2146,7 +2326,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="true"/>
     <col min="2" max="2" width="95.28515625" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="15" customWidth="true"/>
@@ -4045,50 +4225,50 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>426</v>
-      </c>
-      <c r="B43" t="s">
-        <v>427</v>
-      </c>
-      <c r="C43" t="s">
-        <v>428</v>
-      </c>
-      <c r="D43" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" t="s">
-        <v>430</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H43" t="s">
-        <v>432</v>
-      </c>
-      <c r="I43" t="s">
-        <v>433</v>
-      </c>
-      <c r="J43" t="s">
-        <v>434</v>
-      </c>
-      <c r="K43" t="s">
-        <v>435</v>
-      </c>
-      <c r="L43">
-        <v>8</v>
-      </c>
-      <c r="M43" t="s">
-        <v>436</v>
-      </c>
-      <c r="N43">
-        <v>0.2</v>
-      </c>
-      <c r="O43" t="s">
-        <v>437</v>
+      <c r="A43" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="F43" s="0">
+        <v>4</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="L43" s="0">
+        <v>8</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="44">
@@ -4324,6 +4504,194 @@
       </c>
       <c r="O48" s="0" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F49" s="0">
+        <v>4</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="L49" s="0">
+        <v>8</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="N49" s="0">
+        <v>30</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F50" s="0">
+        <v>4</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="L50" s="0">
+        <v>8</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="N50" s="0">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="F51" s="0">
+        <v>4</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="L51" s="0">
+        <v>8</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="N51" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="F52" s="0">
+        <v>4</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="L52" s="0">
+        <v>8</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="N52" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
   <si>
     <t>TrialName</t>
   </si>
@@ -2064,6 +2064,150 @@
   </si>
   <si>
     <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiBecTof4000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the SBB (lattice) camera.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the SBB (lattice) camera.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the SBB (lattice) camera.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
   </si>
   <si>
     <t>BosonicGaussianFit1D</t>
@@ -3431,50 +3575,50 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>596</v>
-      </c>
-      <c r="B24" t="s">
-        <v>597</v>
-      </c>
-      <c r="C24" t="s">
-        <v>598</v>
-      </c>
-      <c r="D24" t="s">
-        <v>599</v>
-      </c>
-      <c r="E24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>601</v>
-      </c>
-      <c r="H24" t="s">
-        <v>602</v>
-      </c>
-      <c r="I24" t="s">
-        <v>603</v>
-      </c>
-      <c r="J24" t="s">
-        <v>604</v>
-      </c>
-      <c r="K24" t="s">
-        <v>605</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24" t="s">
-        <v>606</v>
-      </c>
-      <c r="N24">
-        <v>0.2</v>
-      </c>
-      <c r="O24" t="s">
-        <v>607</v>
+      <c r="A24" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F24" s="0">
+        <v>4</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="L24" s="0">
+        <v>8</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="25">
@@ -3710,50 +3854,50 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>477</v>
-      </c>
-      <c r="B30" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D30" t="s">
-        <v>480</v>
-      </c>
-      <c r="E30" t="s">
-        <v>481</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>482</v>
-      </c>
-      <c r="H30" t="s">
-        <v>483</v>
-      </c>
-      <c r="I30" t="s">
-        <v>484</v>
-      </c>
-      <c r="J30" t="s">
-        <v>485</v>
-      </c>
-      <c r="K30" t="s">
-        <v>486</v>
-      </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-      <c r="M30" t="s">
-        <v>487</v>
-      </c>
-      <c r="N30">
-        <v>0.2</v>
-      </c>
-      <c r="O30" t="s">
-        <v>488</v>
+      <c r="A30" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="F30" s="0">
+        <v>4</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="L30" s="0">
+        <v>20</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="N30" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="31">

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="764">
   <si>
     <t>TrialName</t>
   </si>
@@ -2214,6 +2214,114 @@
   </si>
   <si>
     <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransferBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Do modulation transfer. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransferBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Do modulation transfer. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2659,7 @@
     <col min="1" max="1" width="25.5703125" customWidth="true"/>
     <col min="2" max="2" width="95.28515625" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
     <col min="5" max="5" width="21.42578125" customWidth="true"/>
     <col min="6" max="6" width="8" customWidth="true"/>
     <col min="7" max="7" width="17.85546875" customWidth="true"/>
@@ -4403,50 +4511,50 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>441</v>
-      </c>
-      <c r="B42" t="s">
-        <v>442</v>
-      </c>
-      <c r="C42" t="s">
-        <v>443</v>
-      </c>
-      <c r="D42" t="s">
-        <v>444</v>
-      </c>
-      <c r="E42" t="s">
-        <v>445</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
-        <v>446</v>
-      </c>
-      <c r="H42" t="s">
-        <v>447</v>
-      </c>
-      <c r="I42" t="s">
-        <v>448</v>
-      </c>
-      <c r="J42" t="s">
-        <v>449</v>
-      </c>
-      <c r="K42" t="s">
-        <v>450</v>
-      </c>
-      <c r="L42">
+      <c r="A42" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="F42" s="0">
+        <v>4</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="L42" s="0">
         <v>8</v>
       </c>
-      <c r="M42" t="s">
-        <v>451</v>
-      </c>
-      <c r="N42">
-        <v>0.2</v>
-      </c>
-      <c r="O42" t="s">
-        <v>452</v>
+      <c r="M42" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="N42" s="0">
+        <v>1</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="43">
@@ -4497,50 +4605,50 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>381</v>
-      </c>
-      <c r="B44" t="s">
-        <v>382</v>
-      </c>
-      <c r="C44" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" t="s">
-        <v>384</v>
-      </c>
-      <c r="E44" t="s">
-        <v>385</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
-        <v>386</v>
-      </c>
-      <c r="H44" t="s">
-        <v>387</v>
-      </c>
-      <c r="I44" t="s">
-        <v>388</v>
-      </c>
-      <c r="J44" t="s">
-        <v>389</v>
-      </c>
-      <c r="K44" t="s">
-        <v>390</v>
-      </c>
-      <c r="L44">
+      <c r="A44" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="F44" s="0">
+        <v>4</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="L44" s="0">
         <v>8</v>
       </c>
-      <c r="M44" t="s">
-        <v>391</v>
-      </c>
-      <c r="N44">
+      <c r="M44" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="N44" s="0">
         <v>1</v>
       </c>
-      <c r="O44" t="s">
-        <v>392</v>
+      <c r="O44" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="45">

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
   <si>
     <t>TrialName</t>
   </si>
@@ -2316,6 +2316,42 @@
   </si>
   <si>
     <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>Odt</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
   </si>
   <si>
     <t>BosonicGaussianFit1D</t>
@@ -3064,47 +3100,50 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10">
+      <c r="A10" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F10" s="0">
+        <v>4</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="L10" s="0">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10">
+      <c r="M10" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="N10" s="0">
         <v>15</v>
       </c>
-      <c r="O10" t="s">
-        <v>76</v>
+      <c r="O10" s="0" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="11">

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
   <si>
     <t>TrialName</t>
   </si>
@@ -2358,6 +2358,186 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBsPhaseBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBsPhaseBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -3813,50 +3993,50 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>465</v>
-      </c>
-      <c r="B26" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" t="s">
-        <v>467</v>
-      </c>
-      <c r="D26" t="s">
-        <v>468</v>
-      </c>
-      <c r="E26" t="s">
-        <v>469</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>470</v>
-      </c>
-      <c r="H26" t="s">
-        <v>471</v>
-      </c>
-      <c r="I26" t="s">
-        <v>472</v>
-      </c>
-      <c r="J26" t="s">
-        <v>473</v>
-      </c>
-      <c r="K26" t="s">
-        <v>474</v>
-      </c>
-      <c r="L26">
+      <c r="A26" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="0">
+        <v>4</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="L26" s="0">
         <v>8</v>
       </c>
-      <c r="M26" t="s">
-        <v>475</v>
-      </c>
-      <c r="N26">
-        <v>0.2</v>
-      </c>
-      <c r="O26" t="s">
-        <v>476</v>
+      <c r="M26" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="27">
@@ -5202,6 +5382,100 @@
       </c>
       <c r="O55" s="0" t="s">
         <v>679</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F56" s="0">
+        <v>4</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="L56" s="0">
+        <v>8</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="N56" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="F57" s="0">
+        <v>4</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="L57" s="0">
+        <v>8</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="N57" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
   <si>
     <t>TrialName</t>
   </si>
@@ -2538,6 +2538,330 @@
   </si>
   <si>
     <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>HfBecHFIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HFIMCDetuning</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecHFIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan HFIMCDetuning.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HFIMCDetuning</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecOdtCamera</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecOdtCamera</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>OdtCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage. Imaging along the ODT axis.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>OdtCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage. Imaging along the lattice axis.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKdPulse</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Pulsed on Kapitza Dirac.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>KapitzaDirac</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
   </si>
 </sst>
 </file>
@@ -2864,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -4272,50 +4596,50 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" t="s">
-        <v>247</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" t="s">
-        <v>249</v>
-      </c>
-      <c r="K32" t="s">
-        <v>250</v>
-      </c>
-      <c r="L32">
-        <v>8</v>
-      </c>
-      <c r="M32" t="s">
-        <v>251</v>
-      </c>
-      <c r="N32">
-        <v>0.2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>252</v>
+      <c r="A32" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="F32" s="0">
+        <v>4</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="L32" s="0">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="N32" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="33">
@@ -5476,6 +5800,241 @@
       </c>
       <c r="O57" s="0" t="s">
         <v>835</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="F58" s="0">
+        <v>4</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="L58" s="0">
+        <v>8</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="N58" s="0">
+        <v>2</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="F59" s="0">
+        <v>4</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="L59" s="0">
+        <v>8</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="N59" s="0">
+        <v>2</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="F60" s="0">
+        <v>4</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="L60" s="0">
+        <v>8</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="N60" s="0">
+        <v>30</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="F61" s="0">
+        <v>4</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="L61" s="0">
+        <v>8</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="N61" s="0">
+        <v>2</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="F62" s="0">
+        <v>4</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="L62" s="0">
+        <v>8</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="N62" s="0">
+        <v>15</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t>TrialName</t>
   </si>
@@ -2862,6 +2862,72 @@
   </si>
   <si>
     <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>MotIMCDetuning</t>
+  </si>
+  <si>
+    <t>A TOF experiment after MOT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCDetuning</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>MotIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment after MOT stage. Scan IMC detuning.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCDetuning</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -6037,6 +6103,51 @@
         <v>931</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="F63" s="0">
+        <v>4</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="L63" s="0">
+        <v>8</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="N63" s="0">
+        <v>30</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1014">
   <si>
     <t>TrialName</t>
   </si>
@@ -2928,6 +2928,150 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptime</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecCurveField</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>curveField</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecCurveField</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan curveField.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>curveField</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the ODT camera</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>TwoLevelWeakLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -3262,7 +3406,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
     <col min="2" max="2" width="95.28515625" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="18.85546875" customWidth="true"/>
@@ -5402,50 +5546,50 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>489</v>
-      </c>
-      <c r="B48" t="s">
-        <v>490</v>
-      </c>
-      <c r="C48" t="s">
-        <v>491</v>
-      </c>
-      <c r="D48" t="s">
-        <v>492</v>
-      </c>
-      <c r="E48" t="s">
-        <v>493</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>494</v>
-      </c>
-      <c r="H48" t="s">
-        <v>495</v>
-      </c>
-      <c r="I48" t="s">
-        <v>496</v>
-      </c>
-      <c r="J48" t="s">
-        <v>497</v>
-      </c>
-      <c r="K48" t="s">
-        <v>498</v>
-      </c>
-      <c r="L48">
-        <v>8</v>
-      </c>
-      <c r="M48" t="s">
-        <v>499</v>
-      </c>
-      <c r="N48">
-        <v>0.2</v>
-      </c>
-      <c r="O48" t="s">
-        <v>500</v>
+      <c r="A48" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F48" s="0">
+        <v>4</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L48" s="0">
+        <v>4</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N48" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="49">
@@ -6146,6 +6290,100 @@
       </c>
       <c r="O63" s="0" t="s">
         <v>965</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F64" s="0">
+        <v>4</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="L64" s="0">
+        <v>8</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="N64" s="0">
+        <v>30</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="F65" s="0">
+        <v>4</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="L65" s="0">
+        <v>8</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N65" s="0">
+        <v>2</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
   <si>
     <t>TrialName</t>
   </si>
@@ -3072,6 +3072,78 @@
   </si>
   <si>
     <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBO</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -5170,50 +5242,50 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>429</v>
-      </c>
-      <c r="B40" t="s">
-        <v>430</v>
-      </c>
-      <c r="C40" t="s">
-        <v>431</v>
-      </c>
-      <c r="D40" t="s">
-        <v>432</v>
-      </c>
-      <c r="E40" t="s">
-        <v>433</v>
-      </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>434</v>
-      </c>
-      <c r="H40" t="s">
-        <v>435</v>
-      </c>
-      <c r="I40" t="s">
-        <v>436</v>
-      </c>
-      <c r="J40" t="s">
-        <v>437</v>
-      </c>
-      <c r="K40" t="s">
-        <v>438</v>
-      </c>
-      <c r="L40">
+      <c r="A40" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F40" s="0">
+        <v>4</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L40" s="0">
         <v>8</v>
       </c>
-      <c r="M40" t="s">
-        <v>439</v>
-      </c>
-      <c r="N40">
-        <v>0.2</v>
-      </c>
-      <c r="O40" t="s">
-        <v>440</v>
+      <c r="M40" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N40" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="41">
@@ -5311,50 +5383,50 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>573</v>
-      </c>
-      <c r="B43" t="s">
-        <v>574</v>
-      </c>
-      <c r="C43" t="s">
-        <v>575</v>
-      </c>
-      <c r="D43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E43" t="s">
-        <v>577</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43" t="s">
-        <v>578</v>
-      </c>
-      <c r="H43" t="s">
-        <v>579</v>
-      </c>
-      <c r="I43" t="s">
-        <v>580</v>
-      </c>
-      <c r="J43" t="s">
-        <v>581</v>
-      </c>
-      <c r="K43" t="s">
-        <v>582</v>
-      </c>
-      <c r="L43">
+      <c r="A43" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F43" s="0">
+        <v>4</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L43" s="0">
         <v>8</v>
       </c>
-      <c r="M43" t="s">
-        <v>583</v>
-      </c>
-      <c r="N43">
-        <v>0.2</v>
-      </c>
-      <c r="O43" t="s">
-        <v>584</v>
+      <c r="M43" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="44">

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1158">
   <si>
     <t>TrialName</t>
   </si>
@@ -3129,6 +3129,366 @@
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the ODT camera</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdModDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping. drive strength 0.047</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_PdModDepth</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdModDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan PD modulation depth.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_PdModDepth</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdPulsePhaseBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdPulsePhaseBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan PD pulse phase. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_PdModPhase</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
   </si>
   <si>
     <t>LSR</t>
@@ -3470,7 +3830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -5431,49 +5791,49 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>752</v>
+        <v>1122</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>753</v>
+        <v>1123</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>754</v>
+        <v>1124</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>755</v>
+        <v>1125</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>756</v>
+        <v>1126</v>
       </c>
       <c r="F44" s="0">
         <v>4</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>757</v>
+        <v>1127</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>758</v>
+        <v>1128</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>759</v>
+        <v>1129</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>760</v>
+        <v>1130</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>761</v>
+        <v>1131</v>
       </c>
       <c r="L44" s="0">
         <v>8</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>762</v>
+        <v>1132</v>
       </c>
       <c r="N44" s="0">
         <v>1</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>763</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45">
@@ -5619,49 +5979,49 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1002</v>
+        <v>1062</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1003</v>
+        <v>1063</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1004</v>
+        <v>1064</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1005</v>
+        <v>1065</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1006</v>
+        <v>1066</v>
       </c>
       <c r="F48" s="0">
         <v>4</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1007</v>
+        <v>1067</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1008</v>
+        <v>1068</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>1009</v>
+        <v>1069</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>1010</v>
+        <v>1070</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>1011</v>
+        <v>1071</v>
       </c>
       <c r="L48" s="0">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>1012</v>
+        <v>1072</v>
       </c>
       <c r="N48" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>1013</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49">
@@ -5992,49 +6352,49 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>788</v>
+        <v>1074</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>789</v>
+        <v>1075</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>790</v>
+        <v>1076</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>791</v>
+        <v>1077</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>792</v>
+        <v>1078</v>
       </c>
       <c r="F56" s="0">
         <v>4</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>793</v>
+        <v>1079</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>794</v>
+        <v>1080</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>795</v>
+        <v>1081</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>796</v>
+        <v>1082</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>797</v>
+        <v>1083</v>
       </c>
       <c r="L56" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>798</v>
+        <v>1084</v>
       </c>
       <c r="N56" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>799</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="57">
@@ -6456,6 +6816,100 @@
       </c>
       <c r="O65" s="0" t="s">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F66" s="0">
+        <v>4</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L66" s="0">
+        <v>8</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N66" s="0">
+        <v>1</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F67" s="0">
+        <v>4</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L67" s="0">
+        <v>8</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N67" s="0">
+        <v>1</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
   <si>
     <t>TrialName</t>
   </si>
@@ -3504,6 +3504,186 @@
   </si>
   <si>
     <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
   </si>
 </sst>
 </file>
@@ -3830,7 +4010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -3841,7 +4021,7 @@
     <col min="1" max="1" width="26.42578125" customWidth="true"/>
     <col min="2" max="2" width="95.28515625" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
-    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="4" max="4" width="25.7109375" customWidth="true"/>
     <col min="5" max="5" width="21.42578125" customWidth="true"/>
     <col min="6" max="6" width="8" customWidth="true"/>
     <col min="7" max="7" width="17.85546875" customWidth="true"/>
@@ -4960,49 +5140,49 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>800</v>
+        <v>1206</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>801</v>
+        <v>1207</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>802</v>
+        <v>1208</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>803</v>
+        <v>1209</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>804</v>
+        <v>1210</v>
       </c>
       <c r="F26" s="0">
         <v>4</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>805</v>
+        <v>1211</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>806</v>
+        <v>1212</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>807</v>
+        <v>1213</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>808</v>
+        <v>1214</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>809</v>
+        <v>1215</v>
       </c>
       <c r="L26" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>810</v>
+        <v>1216</v>
       </c>
       <c r="N26" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>811</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="27">
@@ -6910,6 +7090,53 @@
       </c>
       <c r="O67" s="0" t="s">
         <v>1157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F68" s="0">
+        <v>4</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L68" s="0">
+        <v>2</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N68" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1230">
   <si>
     <t>TrialName</t>
   </si>
@@ -3684,6 +3684,42 @@
   </si>
   <si>
     <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>HfBecDivisor</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan divisor</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
   </si>
 </sst>
 </file>
@@ -4338,47 +4374,50 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8">
+      <c r="A8" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F8" s="0">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8">
+      <c r="G8" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L8" s="0">
         <v>8</v>
       </c>
-      <c r="M8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8">
+      <c r="M8" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N8" s="0">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
-        <v>131</v>
+      <c r="O8" s="0" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="9">

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="922">
   <si>
     <t>TrialName</t>
   </si>
@@ -2562,6 +2562,222 @@
   </si>
   <si>
     <t>MTsnapon</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StateTransferSXFTime</t>
+  </si>
+  <si>
+    <t>A TOF experiment with State Transfer</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SXFTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptimeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptimeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptimeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage A.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StateTransferScan</t>
+  </si>
+  <si>
+    <t>A TOF experiment with State Transfer</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SXEndPoint</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -2906,7 +3122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
@@ -2914,7 +3130,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="1" max="1" width="36.42578125" customWidth="true"/>
     <col min="2" max="2" width="95.28515625" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="25.7109375" customWidth="true"/>
@@ -4088,50 +4304,50 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" t="s">
-        <v>326</v>
-      </c>
-      <c r="D27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>329</v>
-      </c>
-      <c r="H27" t="s">
-        <v>330</v>
-      </c>
-      <c r="I27" t="s">
-        <v>331</v>
-      </c>
-      <c r="J27" t="s">
-        <v>332</v>
-      </c>
-      <c r="K27" t="s">
-        <v>333</v>
-      </c>
-      <c r="L27">
+      <c r="A27" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="F27" s="0">
+        <v>4</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="L27" s="0">
         <v>8</v>
       </c>
-      <c r="M27" t="s">
-        <v>334</v>
-      </c>
-      <c r="N27">
-        <v>30</v>
-      </c>
-      <c r="O27" t="s">
-        <v>335</v>
+      <c r="M27" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="N27" s="0">
+        <v>200</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="28">
@@ -6042,96 +6258,96 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>817</v>
+        <v>913</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>818</v>
+        <v>914</v>
       </c>
       <c r="F69" s="0">
         <v>4</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>820</v>
+        <v>916</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>822</v>
+        <v>918</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>823</v>
+        <v>919</v>
       </c>
       <c r="L69" s="0">
         <v>8</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>824</v>
+        <v>920</v>
       </c>
       <c r="N69" s="0">
         <v>15</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>825</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>813</v>
-      </c>
-      <c r="B70" t="s">
-        <v>802</v>
-      </c>
-      <c r="C70" t="s">
-        <v>803</v>
-      </c>
-      <c r="D70" t="s">
-        <v>804</v>
-      </c>
-      <c r="E70" t="s">
-        <v>805</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="G70" t="s">
-        <v>812</v>
-      </c>
-      <c r="H70" t="s">
-        <v>806</v>
-      </c>
-      <c r="I70" t="s">
-        <v>807</v>
-      </c>
-      <c r="J70" t="s">
-        <v>808</v>
-      </c>
-      <c r="K70" t="s">
-        <v>809</v>
-      </c>
-      <c r="L70">
+      <c r="A70" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="F70" s="0">
+        <v>4</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="L70" s="0">
         <v>8</v>
       </c>
-      <c r="M70" t="s">
-        <v>810</v>
-      </c>
-      <c r="N70">
+      <c r="M70" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="N70" s="0">
         <v>15</v>
       </c>
-      <c r="O70" t="s">
-        <v>811</v>
+      <c r="O70" s="0" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="71">
@@ -6179,6 +6395,53 @@
       </c>
       <c r="O71" s="0" t="s">
         <v>849</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="F72" s="0">
+        <v>4</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="L72" s="0">
+        <v>8</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="N72" s="0">
+        <v>30</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/.config/becExpConfig/becExpType.csv.xlsx
+++ b/.config/becExpConfig/becExpType.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\becExpConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFADE6-5F27-4387-A515-F6C9FEDFB218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0D7F5-47D1-4EDF-9BE0-15B133F66027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1410" windowWidth="25695" windowHeight="14190"/>
+    <workbookView xWindow="210" yWindow="3525" windowWidth="25695" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1360">
   <si>
     <t>TrialName</t>
   </si>
@@ -896,6 +896,1440 @@
     <t>LinearFit1D</t>
   </si>
   <si>
+    <t>partialEvapC</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage C.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapB</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage B.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBecDivisor</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan divisor.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecMultiplier</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan multiplier.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransfer</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Do modulation transfer.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapD</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapD</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDScanRFVVA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeDriveStrengthBM</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeFeshbachField2</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeFeshbachField2Bm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>FeshbachField2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>MOTIMCDetuning</t>
+  </si>
+  <si>
+    <t>A general test.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBecMuRabi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan Microwave time.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiBecTof4000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MuHold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecMuFreq</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan Microwave Frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiBecTof4000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiBecTof4000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the SBB (lattice) camera.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeTransferBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Do modulation transfer. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>Odt</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBsPhaseBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>HfBecHFIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan HFIMCDetuning.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HFIMCDetuning</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecOdtCamera</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>OdtCameraSBB</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage. Imaging along the lattice axis.</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKdPulse</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Pulsed on Kapitza Dirac.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>KapitzaDirac</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>MotIMCDetuning</t>
+  </si>
+  <si>
+    <t>An experiment after MOT stage. Scan IMC detuning.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCDetuning</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptime</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>HfBecCurveField</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan curveField.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>curveField</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBO</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLattice</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_xvlattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiBecCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Use the ODT camera</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdModDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan PD modulation depth.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_PdModDepth</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticePdPulsePhaseBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan PD pulse phase. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_PdModPhase</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>AtomNumber;DensityFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>HfBecDivisor</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan divisor</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>EvapDCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D. Imaging along the ODT axis</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RunIndex</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>TwoLevelWeakLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
     <t>EvapDGMtime</t>
   </si>
   <si>
@@ -932,10 +2366,10 @@
     <t>LinearFit1D</t>
   </si>
   <si>
-    <t>partialEvapC</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage C.</t>
+    <t>EvapDMTsnapon</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage D.</t>
   </si>
   <si>
     <t>TOP</t>
@@ -947,6 +2381,114 @@
     <t>None</t>
   </si>
   <si>
+    <t>MTsnapon</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StateTransferSXFTime</t>
+  </si>
+  <si>
+    <t>A TOF experiment with State Transfer</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SXFTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapDpartialevaptimeCameraOdt</t>
+  </si>
+  <si>
+    <t>An experiment at partial evaporation stage D.</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>partialevaptime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>partialEvapA</t>
+  </si>
+  <si>
+    <t>An experiment at evaporation stage A.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>RunIndex</t>
   </si>
   <si>
@@ -968,10 +2510,10 @@
     <t>LinearFit1D</t>
   </si>
   <si>
-    <t>partialEvapB</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage B.</t>
+    <t>StateTransferScan</t>
+  </si>
+  <si>
+    <t>A TOF experiment with State Transfer</t>
   </si>
   <si>
     <t>TOP</t>
@@ -983,7 +2525,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>RunIndex</t>
+    <t>hw_SXEndPoint</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -1004,10 +2546,211 @@
     <t>LinearFit1D</t>
   </si>
   <si>
-    <t>partialEvapA</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage A.</t>
+    <t>AveragingMethod</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency. feshbachfield2 =  6.125</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency. feshbachfield2 =  6.125</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Hold in ODT and slosh.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NIhold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ODThold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
   </si>
   <si>
     <t>TOP</t>
@@ -1019,7 +2762,241 @@
     <t>None</t>
   </si>
   <si>
-    <t>RunIndex</t>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecOdtSlosh</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBecHold</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Hold in ODT/XODT.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HfHoldTime</t>
+  </si>
+  <si>
+    <t>DensityFit;CenterFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t>A slosh experiment at the non-interacting lattice stage. no retro, sloshing to check force xv ni changed from 4.88 to 4.9</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -1028,6 +3005,591 @@
     <t>LSR</t>
   </si>
   <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSlosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A slosh experiment at the non-interacting lattice stage. </t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>SineFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan hw_SdCalibFreqStart.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan hw_SdCalibFreqStart.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan hw_SdCalibFreqStart.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan hw_SdCalibFreqStart.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdCalibFreqStart</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeLatticeHoldBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthStability</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CiceroLogTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabiDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabiDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdRabiDepth</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabiDepth</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. SdRabiDepth</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_SdRabiDepth</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>OdtXFHTime</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>XFHTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
     <t>LF</t>
   </si>
   <si>
@@ -1040,10 +3602,169 @@
     <t>LinearFit1D</t>
   </si>
   <si>
-    <t>NiLatticeBm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>OdtXFHTime</t>
+  </si>
+  <si>
+    <t>An experiment at ODT stage. Scan XFHTime.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>XFHTime</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>RandomPolarization</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>HfBectau</t>
+  </si>
+  <si>
+    <t>An experiment at the high-field BEC stage. Scan tau.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiBecIMCNonInter</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>IMCNonInter</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeXvNi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan XV_NI</t>
   </si>
   <si>
     <t>TOP</t>
@@ -1055,7 +3776,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>RunIndex</t>
+    <t>hw_XvNi</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -1076,22 +3797,220 @@
     <t>LinearFit1D</t>
   </si>
   <si>
-    <t>NiBecDivisor</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Scan divisor.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Bec</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>divisor</t>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. SdRabiDepth</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Rabi flop.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeXvLatticeBm</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hw_XvLattice</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>LinearFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeKP2VVA</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KP2VVA</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>ParabolicFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBmTof5000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
   </si>
   <si>
     <t>DensityFit;AtomNumber;CenterFit</t>
@@ -1100,7 +4019,7 @@
     <t>LSR</t>
   </si>
   <si>
-    <t>NI</t>
+    <t>HF</t>
   </si>
   <si>
     <t>StrongLight</t>
@@ -1109,1693 +4028,88 @@
     <t>BosonicGaussianFit1D</t>
   </si>
   <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBmTof5000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber;CenterFit</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
+    <t>TriangleFit1D</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>NiLatticeSdRabi</t>
+  </si>
+  <si>
+    <t>An experiment at the non-interacting lattice stage. Rabi flop.</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>latticehold</t>
+  </si>
+  <si>
+    <t>DensityFit;AtomNumber</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>StrongLight</t>
+  </si>
+  <si>
+    <t>BosonicGaussianFit1D</t>
+  </si>
+  <si>
     <t>ParabolicFit1D</t>
   </si>
   <si>
-    <t>NiBecMultiplier</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Scan multiplier.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Bec</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeTransfer</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Do modulation transfer.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapD</t>
-  </si>
-  <si>
-    <t>An experiment at partial evaporation stage D.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapD</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>CiceroLogTime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapDScanRFVVA</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeDriveStrengthBM</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>xvlattice</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeFeshbachField2</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>FeshbachField2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeFeshbachField2Bm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan FeshbachField2. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>FeshbachField2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>MOTIMCDetuning</t>
-  </si>
-  <si>
-    <t>A general test.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>CiceroLogTime</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiBecMuRabi</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Scan Microwave time.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiBecTof4000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>MuHold</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiBecMuFreq</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Scan Microwave Frequency.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiBecTof4000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiBecIMCNonInter</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Scan NI imaging frequency.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiBecTof4000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>IMCNonInter</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiBecCameraSBB</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Use the SBB (lattice) camera.</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>BecCameraSBB</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeTransferBm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Do modulation transfer. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLatticeDepthCalib</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>KP2VVA</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>Odt</t>
-  </si>
-  <si>
-    <t>An experiment at ODT stage.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>AtomNumber;DensityFit;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeBsPhaseBm</t>
-  </si>
-  <si>
-    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BMPDloopTof3000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>TriangleFit1D</t>
-  </si>
-  <si>
-    <t>HfBecHFIMCDetuning</t>
-  </si>
-  <si>
-    <t>An experiment at the high-field BEC stage. Scan HFIMCDetuning.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Bec</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>HFIMCDetuning</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>HfBecOdtCamera</t>
-  </si>
-  <si>
-    <t>An experiment at the high-field BEC stage.</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapDCameraSBB</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D.</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>BecCameraSBB</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>CiceroLogTime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>HfBecCameraSBB</t>
-  </si>
-  <si>
-    <t>An experiment at the high-field BEC stage.</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>BecCameraSBB</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>OdtCameraSBB</t>
-  </si>
-  <si>
-    <t>An experiment at ODT stage. Imaging along the lattice axis.</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>BecCameraSBB</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeKdPulse</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Pulsed on Kapitza Dirac.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NILatticeKd</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>KapitzaDirac</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>SineFit1D</t>
-  </si>
-  <si>
-    <t>MotIMCDetuning</t>
-  </si>
-  <si>
-    <t>An experiment after MOT stage. Scan IMC detuning.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>IMCDetuning</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapDpartialevaptime</t>
-  </si>
-  <si>
-    <t>An experiment at partial evaporation stage D.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>partialevaptime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>HfBecCurveField</t>
-  </si>
-  <si>
-    <t>An experiment at the high-field BEC stage. Scan curveField.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Bec</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>curveField</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeBoBm</t>
-  </si>
-  <si>
-    <t>A Bloch oscillation experiment at the non-interacting lattice stage. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLatticeBO</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>latticehold</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>TriangleFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeXvLattice</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan xvlattice</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLattice</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>hw_xvlattice</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiBecCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting BEC stage. Use the ODT camera</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage.</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticePdModDepth</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan PD modulation depth.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BMPDloopTof3000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>hw_PdModDepth</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeXvLatticeBm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan xvlattice. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BMPDloopTof8000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>hw_XvLattice</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticePdPulsePhaseBm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan PD pulse phase. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BMPDloopTof8000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>hw_PdModPhase</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeLatticeHoldBm</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. With band mapping.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLatticeDepthCalibTof8000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>latticehold</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>NiLatticeKP2VVA</t>
-  </si>
-  <si>
-    <t>An experiment at the non-interacting lattice stage. Scan KP2VVA.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>NiLatticeDepthCalibTof8000</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>KP2VVA</t>
-  </si>
-  <si>
-    <t>AtomNumber;DensityFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>ParabolicFit1D</t>
-  </si>
-  <si>
-    <t>HfBecDivisor</t>
-  </si>
-  <si>
-    <t>An experiment at the high-field BEC stage. Scan divisor</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>Bec</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>divisor</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>StrongLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapDCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D. Imaging along the ODT axis</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>TwoLevelWeakLight</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>StateTransferScan</t>
-  </si>
-  <si>
-    <t>A TOF experiment with State Transfer</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>A TOF experiment with State Transfer</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;Tof;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>SXFTime</t>
-  </si>
-  <si>
-    <t>StateTransferSXFTime</t>
-  </si>
-  <si>
-    <t>StateTransferScan</t>
-  </si>
-  <si>
-    <t>A TOF experiment with State Transfer</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>dummy2</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapDGMtime</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D. Scan GM time.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>GMtime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>EvapDMTsnapon</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage D.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>MTsnapon</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>StateTransferSXFTime</t>
-  </si>
-  <si>
-    <t>A TOF experiment with State Transfer</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>SXFTime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapDpartialevaptimeCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at partial evaporation stage D.</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>partialevaptime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapDpartialevaptimeCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at partial evaporation stage D.</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>partialevaptime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapDpartialevaptimeCameraOdt</t>
-  </si>
-  <si>
-    <t>An experiment at partial evaporation stage D.</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>SideOdtCamera</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>partialevaptime</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>partialEvapA</t>
-  </si>
-  <si>
-    <t>An experiment at evaporation stage A.</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>RunIndex</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
-  </si>
-  <si>
-    <t>StateTransferScan</t>
-  </si>
-  <si>
-    <t>A TOF experiment with State Transfer</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>EvapDOdt1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>hw_SXEndPoint</t>
-  </si>
-  <si>
-    <t>DensityFit;AtomNumber;CenterFit</t>
-  </si>
-  <si>
-    <t>LSR</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>RandomPolarization</t>
-  </si>
-  <si>
-    <t>BosonicGaussianFit1D</t>
-  </si>
-  <si>
-    <t>LinearFit1D</t>
+    <t>StdErr</t>
   </si>
 </sst>
 </file>
@@ -3122,10 +4436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="true" topLeftCell="D60" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3136,7 +4450,7 @@
     <col min="4" max="4" width="25.7109375" customWidth="true"/>
     <col min="5" max="5" width="21.42578125" customWidth="true"/>
     <col min="6" max="6" width="8" customWidth="true"/>
-    <col min="7" max="7" width="17.85546875" customWidth="true"/>
+    <col min="7" max="7" width="19.5703125" customWidth="true"/>
     <col min="8" max="8" width="35.140625" customWidth="true"/>
     <col min="9" max="9" width="21.42578125" customWidth="true"/>
     <col min="10" max="10" width="13" customWidth="true"/>
@@ -3145,6 +4459,7 @@
     <col min="13" max="13" width="20.42578125" customWidth="true"/>
     <col min="14" max="14" width="17.42578125" customWidth="true"/>
     <col min="15" max="15" width="16.42578125" customWidth="true"/>
+    <col min="16" max="16" width="17" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3193,6 +4508,9 @@
       <c r="O1" t="s">
         <v>22</v>
       </c>
+      <c r="P1" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3234,6 +4552,9 @@
       <c r="O2" t="s">
         <v>23</v>
       </c>
+      <c r="P2" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3278,6 +4599,9 @@
       <c r="O3" t="s">
         <v>207</v>
       </c>
+      <c r="P3" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3322,6 +4646,9 @@
       <c r="O4" t="s">
         <v>263</v>
       </c>
+      <c r="P4" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3363,6 +4690,9 @@
       <c r="O5" t="s">
         <v>33</v>
       </c>
+      <c r="P5" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3404,6 +4734,9 @@
       <c r="O6" t="s">
         <v>43</v>
       </c>
+      <c r="P6" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3448,52 +4781,58 @@
       <c r="O7" t="s">
         <v>87</v>
       </c>
+      <c r="P7" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="C8" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="D8" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="E8" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="H8" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="I8" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="J8" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="K8" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>777</v>
+        <v>753</v>
+      </c>
+      <c r="P8" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="9">
@@ -3539,146 +4878,158 @@
       <c r="O9" t="s">
         <v>98</v>
       </c>
+      <c r="P9" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C10" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="E10" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="H10" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="I10" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="J10" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="K10" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="L10">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="N10">
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>538</v>
+        <v>514</v>
+      </c>
+      <c r="P10" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="H11" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I11" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="J11" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="K11" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="N11">
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>407</v>
+        <v>383</v>
+      </c>
+      <c r="P11" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="B12" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="C12" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="D12" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="E12" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="H12" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="I12" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="J12" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="K12" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="L12">
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="N12">
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>789</v>
+        <v>765</v>
+      </c>
+      <c r="P12" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="13">
@@ -3724,6 +5075,9 @@
       <c r="O13" t="s">
         <v>76</v>
       </c>
+      <c r="P13" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3768,6 +5122,9 @@
       <c r="O14" t="s">
         <v>54</v>
       </c>
+      <c r="P14" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3812,49 +5169,58 @@
       <c r="O15" t="s">
         <v>65</v>
       </c>
+      <c r="P15" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16">
+      <c r="A16" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="F16" s="0">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16">
+      <c r="G16" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="L16" s="0">
         <v>8</v>
       </c>
-      <c r="M16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16">
+      <c r="M16" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="N16" s="0">
         <v>2</v>
       </c>
-      <c r="O16" t="s">
-        <v>109</v>
+      <c r="O16" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="17">
@@ -3897,6 +5263,9 @@
       <c r="O17" t="s">
         <v>110</v>
       </c>
+      <c r="P17" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3941,6 +5310,9 @@
       <c r="O18" t="s">
         <v>152</v>
       </c>
+      <c r="P18" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3985,6 +5357,9 @@
       <c r="O19" t="s">
         <v>141</v>
       </c>
+      <c r="P19" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4029,52 +5404,58 @@
       <c r="O20" t="s">
         <v>130</v>
       </c>
+      <c r="P20" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21">
+      <c r="A21" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="0">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I21" t="s">
-        <v>271</v>
-      </c>
-      <c r="J21" t="s">
-        <v>272</v>
-      </c>
-      <c r="K21" t="s">
-        <v>273</v>
-      </c>
-      <c r="L21">
+      <c r="G21" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L21" s="0">
         <v>8</v>
       </c>
-      <c r="M21" t="s">
-        <v>274</v>
-      </c>
-      <c r="N21">
-        <v>0.2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>275</v>
+      <c r="M21" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="22">
@@ -4120,6 +5501,9 @@
       <c r="O22" t="s">
         <v>174</v>
       </c>
+      <c r="P22" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4164,52 +5548,58 @@
       <c r="O23" t="s">
         <v>185</v>
       </c>
+      <c r="P23" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>491</v>
-      </c>
-      <c r="B24" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E24" t="s">
-        <v>495</v>
-      </c>
-      <c r="F24">
+      <c r="A24" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F24" s="0">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
-        <v>496</v>
-      </c>
-      <c r="H24" t="s">
-        <v>497</v>
-      </c>
-      <c r="I24" t="s">
-        <v>498</v>
-      </c>
-      <c r="J24" t="s">
-        <v>499</v>
-      </c>
-      <c r="K24" t="s">
-        <v>500</v>
-      </c>
-      <c r="L24">
+      <c r="G24" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L24" s="0">
         <v>8</v>
       </c>
-      <c r="M24" t="s">
-        <v>501</v>
-      </c>
-      <c r="N24">
-        <v>0.2</v>
-      </c>
-      <c r="O24" t="s">
-        <v>502</v>
+      <c r="M24" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="25">
@@ -4255,331 +5645,358 @@
       <c r="O25" t="s">
         <v>163</v>
       </c>
+      <c r="P25" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>754</v>
-      </c>
-      <c r="B26" t="s">
-        <v>755</v>
-      </c>
-      <c r="C26" t="s">
-        <v>756</v>
-      </c>
-      <c r="D26" t="s">
-        <v>757</v>
-      </c>
-      <c r="E26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F26">
+      <c r="A26" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F26" s="0">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
-        <v>759</v>
-      </c>
-      <c r="H26" t="s">
-        <v>760</v>
-      </c>
-      <c r="I26" t="s">
-        <v>761</v>
-      </c>
-      <c r="J26" t="s">
-        <v>762</v>
-      </c>
-      <c r="K26" t="s">
-        <v>763</v>
-      </c>
-      <c r="L26">
+      <c r="G26" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L26" s="0">
         <v>2</v>
       </c>
-      <c r="M26" t="s">
-        <v>764</v>
-      </c>
-      <c r="N26">
-        <v>0.2</v>
-      </c>
-      <c r="O26" t="s">
-        <v>765</v>
+      <c r="M26" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="F27" s="0">
+      <c r="A27" t="s">
+        <v>814</v>
+      </c>
+      <c r="B27" t="s">
+        <v>815</v>
+      </c>
+      <c r="C27" t="s">
+        <v>816</v>
+      </c>
+      <c r="D27" t="s">
+        <v>817</v>
+      </c>
+      <c r="E27" t="s">
+        <v>818</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="L27" s="0">
+      <c r="G27" t="s">
+        <v>819</v>
+      </c>
+      <c r="H27" t="s">
+        <v>820</v>
+      </c>
+      <c r="I27" t="s">
+        <v>821</v>
+      </c>
+      <c r="J27" t="s">
+        <v>822</v>
+      </c>
+      <c r="K27" t="s">
+        <v>823</v>
+      </c>
+      <c r="L27">
         <v>8</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="N27" s="0">
+      <c r="M27" t="s">
+        <v>824</v>
+      </c>
+      <c r="N27">
         <v>200</v>
       </c>
-      <c r="O27" s="0" t="s">
-        <v>909</v>
+      <c r="O27" t="s">
+        <v>825</v>
+      </c>
+      <c r="P27" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J28" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K28" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L28">
         <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="N28">
         <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>323</v>
+        <v>311</v>
+      </c>
+      <c r="P28" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H29" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L29">
         <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="N29">
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="P29" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B30" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C30" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D30" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="E30" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="H30" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="I30" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="J30" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="L30">
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="N30">
         <v>0.2</v>
       </c>
       <c r="O30" t="s">
-        <v>514</v>
+        <v>490</v>
+      </c>
+      <c r="P30" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31">
+      <c r="A31" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F31" s="0">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31">
+      <c r="G31" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L31" s="0">
         <v>8</v>
       </c>
-      <c r="M31" t="s">
-        <v>195</v>
-      </c>
-      <c r="N31">
-        <v>0.2</v>
-      </c>
-      <c r="O31" t="s">
-        <v>196</v>
+      <c r="M31" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B32" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C32" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D32" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="E32" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="H32" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="I32" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="J32" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="K32" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="L32">
         <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="N32">
         <v>0.2</v>
       </c>
       <c r="O32" t="s">
-        <v>622</v>
+        <v>598</v>
+      </c>
+      <c r="P32" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="33">
@@ -4625,52 +6042,58 @@
       <c r="O33" t="s">
         <v>218</v>
       </c>
+      <c r="P33" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H34" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="I34" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="L34">
         <v>8</v>
       </c>
       <c r="M34" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="N34">
         <v>0.2</v>
       </c>
       <c r="O34" t="s">
-        <v>383</v>
+        <v>359</v>
+      </c>
+      <c r="P34" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="35">
@@ -4716,6 +6139,9 @@
       <c r="O35" t="s">
         <v>230</v>
       </c>
+      <c r="P35" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4760,6 +6186,9 @@
       <c r="O36" t="s">
         <v>241</v>
       </c>
+      <c r="P36" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4804,6 +6233,9 @@
       <c r="O37" t="s">
         <v>252</v>
       </c>
+      <c r="P37" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -4851,1597 +6283,2102 @@
       <c r="O38" t="s">
         <v>287</v>
       </c>
+      <c r="P38" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="F39" s="0">
+      <c r="A39" t="s">
+        <v>766</v>
+      </c>
+      <c r="B39" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" t="s">
+        <v>768</v>
+      </c>
+      <c r="D39" t="s">
+        <v>769</v>
+      </c>
+      <c r="E39" t="s">
+        <v>770</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="L39" s="0">
+      <c r="G39" t="s">
+        <v>771</v>
+      </c>
+      <c r="H39" t="s">
+        <v>772</v>
+      </c>
+      <c r="I39" t="s">
+        <v>773</v>
+      </c>
+      <c r="J39" t="s">
+        <v>774</v>
+      </c>
+      <c r="K39" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39">
         <v>8</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="N39" s="0">
+      <c r="M39" t="s">
+        <v>776</v>
+      </c>
+      <c r="N39">
         <v>30</v>
       </c>
-      <c r="O39" s="0" t="s">
-        <v>837</v>
+      <c r="O39" t="s">
+        <v>777</v>
+      </c>
+      <c r="P39" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="B40" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="C40" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="D40" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="E40" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="H40" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="I40" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="J40" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="K40" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="L40">
         <v>8</v>
       </c>
       <c r="M40" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="N40">
         <v>0.2</v>
       </c>
       <c r="O40" t="s">
-        <v>681</v>
+        <v>657</v>
+      </c>
+      <c r="P40" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E41" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="H41" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="I41" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="L41">
         <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="N41">
         <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>395</v>
+        <v>371</v>
+      </c>
+      <c r="P41" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B42" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C42" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E42" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="H42" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="I42" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="J42" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="K42" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="L42">
         <v>8</v>
       </c>
       <c r="M42" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>526</v>
+        <v>502</v>
+      </c>
+      <c r="P42" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>658</v>
-      </c>
-      <c r="B43" t="s">
-        <v>659</v>
-      </c>
-      <c r="C43" t="s">
-        <v>660</v>
-      </c>
-      <c r="D43" t="s">
-        <v>661</v>
-      </c>
-      <c r="E43" t="s">
-        <v>662</v>
-      </c>
-      <c r="F43">
+      <c r="A43" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F43" s="0">
         <v>4</v>
       </c>
-      <c r="G43" t="s">
-        <v>663</v>
-      </c>
-      <c r="H43" t="s">
-        <v>664</v>
-      </c>
-      <c r="I43" t="s">
-        <v>665</v>
-      </c>
-      <c r="J43" t="s">
-        <v>666</v>
-      </c>
-      <c r="K43" t="s">
-        <v>667</v>
-      </c>
-      <c r="L43">
-        <v>8</v>
-      </c>
-      <c r="M43" t="s">
-        <v>668</v>
-      </c>
-      <c r="N43">
-        <v>0.2</v>
-      </c>
-      <c r="O43" t="s">
-        <v>669</v>
+      <c r="G43" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L43" s="0">
+        <v>2</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N43" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>718</v>
-      </c>
-      <c r="B44" t="s">
-        <v>719</v>
-      </c>
-      <c r="C44" t="s">
-        <v>720</v>
-      </c>
-      <c r="D44" t="s">
-        <v>721</v>
-      </c>
-      <c r="E44" t="s">
-        <v>722</v>
-      </c>
-      <c r="F44">
+      <c r="A44" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F44" s="0">
         <v>4</v>
       </c>
-      <c r="G44" t="s">
-        <v>723</v>
-      </c>
-      <c r="H44" t="s">
-        <v>724</v>
-      </c>
-      <c r="I44" t="s">
-        <v>725</v>
-      </c>
-      <c r="J44" t="s">
-        <v>726</v>
-      </c>
-      <c r="K44" t="s">
-        <v>727</v>
-      </c>
-      <c r="L44">
+      <c r="G44" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L44" s="0">
         <v>8</v>
       </c>
-      <c r="M44" t="s">
-        <v>728</v>
-      </c>
-      <c r="N44">
+      <c r="M44" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N44" s="0">
         <v>1</v>
       </c>
-      <c r="O44" t="s">
-        <v>729</v>
+      <c r="O44" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="H45" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="L45">
         <v>8</v>
       </c>
       <c r="M45" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="N45">
         <v>0.2</v>
       </c>
       <c r="O45" t="s">
-        <v>347</v>
+        <v>323</v>
+      </c>
+      <c r="P45" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="H46" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="L46">
         <v>8</v>
       </c>
       <c r="M46" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="N46">
         <v>10</v>
       </c>
       <c r="O46" t="s">
-        <v>359</v>
+        <v>335</v>
+      </c>
+      <c r="P46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H47" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="I47" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="J47" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="K47" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="L47">
         <v>12</v>
       </c>
       <c r="M47" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>371</v>
+        <v>347</v>
+      </c>
+      <c r="P47" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="B48" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="C48" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="D48" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="E48" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="H48" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="I48" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="J48" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="K48" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="N48">
         <v>0.2</v>
       </c>
       <c r="O48" t="s">
-        <v>693</v>
+        <v>669</v>
+      </c>
+      <c r="P48" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="E49" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="H49" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="L49">
         <v>8</v>
       </c>
       <c r="M49" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="N49">
         <v>30</v>
       </c>
       <c r="O49" t="s">
-        <v>419</v>
+        <v>395</v>
+      </c>
+      <c r="P49" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C50" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E50" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H50" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="J50" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="L50">
         <v>8</v>
       </c>
       <c r="M50" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>431</v>
+        <v>407</v>
+      </c>
+      <c r="P50" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="H51" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="L51">
         <v>8</v>
       </c>
       <c r="M51" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="N51">
         <v>0.2</v>
       </c>
       <c r="O51" t="s">
-        <v>443</v>
+        <v>419</v>
+      </c>
+      <c r="P51" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C52" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="H52" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="I52" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="J52" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="L52">
         <v>8</v>
       </c>
       <c r="M52" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="N52">
         <v>0.2</v>
       </c>
       <c r="O52" t="s">
-        <v>455</v>
+        <v>431</v>
+      </c>
+      <c r="P52" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="D53" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="E53" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="L53">
         <v>8</v>
       </c>
       <c r="M53" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="N53">
         <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>466</v>
+        <v>442</v>
+      </c>
+      <c r="P53" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C54" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D54" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="E54" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="H54" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="K54" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="L54">
         <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="N54">
         <v>0.2</v>
       </c>
       <c r="O54" t="s">
-        <v>478</v>
+        <v>454</v>
+      </c>
+      <c r="P54" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="E55" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="F55">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="H55" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="I55" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="J55" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="L55">
         <v>8</v>
       </c>
       <c r="M55" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="N55">
         <v>0.2</v>
       </c>
       <c r="O55" t="s">
-        <v>490</v>
+        <v>466</v>
+      </c>
+      <c r="P55" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="B56" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="D56" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="E56" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="H56" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="I56" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="J56" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="K56" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="N56">
         <v>0.2</v>
       </c>
       <c r="O56" t="s">
-        <v>705</v>
+        <v>681</v>
+      </c>
+      <c r="P56" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B57" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C57" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="D57" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="E57" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="F57">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="H57" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="I57" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="J57" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="K57" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="L57">
         <v>8</v>
       </c>
       <c r="M57" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="N57">
         <v>0.2</v>
       </c>
       <c r="O57" t="s">
-        <v>550</v>
+        <v>526</v>
+      </c>
+      <c r="P57" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B58" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C58" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D58" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="E58" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="H58" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="I58" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="J58" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="K58" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="L58">
         <v>8</v>
       </c>
       <c r="M58" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="N58">
         <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>562</v>
+        <v>538</v>
+      </c>
+      <c r="P58" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B59" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C59" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="D59" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="E59" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="I59" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="J59" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="L59">
         <v>8</v>
       </c>
       <c r="M59" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>574</v>
+        <v>550</v>
+      </c>
+      <c r="P59" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B60" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="D60" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="E60" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="H60" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="I60" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="J60" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="K60" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="L60">
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="N60">
         <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>586</v>
+        <v>562</v>
+      </c>
+      <c r="P60" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="B61" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="C61" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="D61" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="E61" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="H61" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="I61" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="J61" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="K61" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="L61">
         <v>8</v>
       </c>
       <c r="M61" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="N61">
         <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>598</v>
+        <v>574</v>
+      </c>
+      <c r="P61" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="B62" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="D62" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="E62" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="F62">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="H62" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="I62" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="J62" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="K62" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="L62">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="N62">
         <v>15</v>
       </c>
       <c r="O62" t="s">
-        <v>610</v>
+        <v>586</v>
+      </c>
+      <c r="P62" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B63" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C63" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="D63" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="E63" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F63">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="I63" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="J63" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="K63" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="L63">
         <v>8</v>
       </c>
       <c r="M63" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="N63">
         <v>30</v>
       </c>
       <c r="O63" t="s">
-        <v>633</v>
+        <v>609</v>
+      </c>
+      <c r="P63" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B64" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C64" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="D64" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="E64" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="F64">
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="H64" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="I64" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="J64" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="K64" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="L64">
         <v>8</v>
       </c>
       <c r="M64" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="N64">
         <v>30</v>
       </c>
       <c r="O64" t="s">
-        <v>645</v>
+        <v>621</v>
+      </c>
+      <c r="P64" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="B65" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="D65" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="E65" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="H65" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="I65" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="J65" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="K65" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="L65">
         <v>8</v>
       </c>
       <c r="M65" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>657</v>
+        <v>633</v>
+      </c>
+      <c r="P65" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="B66" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="C66" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="D66" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="E66" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="H66" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="I66" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="J66" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="K66" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="L66">
         <v>8</v>
       </c>
       <c r="M66" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>717</v>
+        <v>693</v>
+      </c>
+      <c r="P66" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="B67" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="C67" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="D67" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="E67" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="H67" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="I67" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="J67" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="K67" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="L67">
         <v>8</v>
       </c>
       <c r="M67" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>741</v>
+        <v>717</v>
+      </c>
+      <c r="P67" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>742</v>
-      </c>
-      <c r="B68" t="s">
-        <v>743</v>
-      </c>
-      <c r="C68" t="s">
-        <v>744</v>
-      </c>
-      <c r="D68" t="s">
-        <v>745</v>
-      </c>
-      <c r="E68" t="s">
-        <v>746</v>
-      </c>
-      <c r="F68">
+      <c r="A68" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F68" s="0">
         <v>4</v>
       </c>
-      <c r="G68" t="s">
-        <v>747</v>
-      </c>
-      <c r="H68" t="s">
-        <v>748</v>
-      </c>
-      <c r="I68" t="s">
-        <v>749</v>
-      </c>
-      <c r="J68" t="s">
-        <v>750</v>
-      </c>
-      <c r="K68" t="s">
-        <v>751</v>
-      </c>
-      <c r="L68">
+      <c r="G68" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L68" s="0">
         <v>2</v>
       </c>
-      <c r="M68" t="s">
-        <v>752</v>
-      </c>
-      <c r="N68">
-        <v>0.2</v>
-      </c>
-      <c r="O68" t="s">
-        <v>753</v>
+      <c r="M68" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N68" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="F69" s="0">
+      <c r="A69" t="s">
+        <v>826</v>
+      </c>
+      <c r="B69" t="s">
+        <v>827</v>
+      </c>
+      <c r="C69" t="s">
+        <v>828</v>
+      </c>
+      <c r="D69" t="s">
+        <v>829</v>
+      </c>
+      <c r="E69" t="s">
+        <v>830</v>
+      </c>
+      <c r="F69">
         <v>4</v>
       </c>
-      <c r="G69" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>919</v>
-      </c>
-      <c r="L69" s="0">
+      <c r="G69" t="s">
+        <v>831</v>
+      </c>
+      <c r="H69" t="s">
+        <v>832</v>
+      </c>
+      <c r="I69" t="s">
+        <v>833</v>
+      </c>
+      <c r="J69" t="s">
+        <v>834</v>
+      </c>
+      <c r="K69" t="s">
+        <v>835</v>
+      </c>
+      <c r="L69">
         <v>8</v>
       </c>
-      <c r="M69" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="N69" s="0">
+      <c r="M69" t="s">
+        <v>836</v>
+      </c>
+      <c r="N69">
         <v>15</v>
       </c>
-      <c r="O69" s="0" t="s">
-        <v>921</v>
+      <c r="O69" t="s">
+        <v>837</v>
+      </c>
+      <c r="P69" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="F70" s="0">
+      <c r="A70" t="s">
+        <v>790</v>
+      </c>
+      <c r="B70" t="s">
+        <v>791</v>
+      </c>
+      <c r="C70" t="s">
+        <v>792</v>
+      </c>
+      <c r="D70" t="s">
+        <v>793</v>
+      </c>
+      <c r="E70" t="s">
+        <v>794</v>
+      </c>
+      <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="L70" s="0">
+      <c r="G70" t="s">
+        <v>795</v>
+      </c>
+      <c r="H70" t="s">
+        <v>796</v>
+      </c>
+      <c r="I70" t="s">
+        <v>797</v>
+      </c>
+      <c r="J70" t="s">
+        <v>798</v>
+      </c>
+      <c r="K70" t="s">
+        <v>799</v>
+      </c>
+      <c r="L70">
         <v>8</v>
       </c>
-      <c r="M70" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="N70" s="0">
+      <c r="M70" t="s">
+        <v>800</v>
+      </c>
+      <c r="N70">
         <v>15</v>
       </c>
-      <c r="O70" s="0" t="s">
-        <v>861</v>
+      <c r="O70" t="s">
+        <v>801</v>
+      </c>
+      <c r="P70" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" t="s">
+        <v>778</v>
+      </c>
+      <c r="B71" t="s">
+        <v>779</v>
+      </c>
+      <c r="C71" t="s">
+        <v>780</v>
+      </c>
+      <c r="D71" t="s">
+        <v>781</v>
+      </c>
+      <c r="E71" t="s">
+        <v>782</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>783</v>
+      </c>
+      <c r="H71" t="s">
+        <v>784</v>
+      </c>
+      <c r="I71" t="s">
+        <v>785</v>
+      </c>
+      <c r="J71" t="s">
+        <v>786</v>
+      </c>
+      <c r="K71" t="s">
+        <v>787</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71" t="s">
+        <v>788</v>
+      </c>
+      <c r="N71">
+        <v>30</v>
+      </c>
+      <c r="O71" t="s">
+        <v>789</v>
+      </c>
+      <c r="P71" t="s">
         <v>839</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="F71" s="0">
-        <v>4</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="L71" s="0">
-        <v>8</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="N71" s="0">
-        <v>30</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>889</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="F72" s="0">
+      <c r="A72" t="s">
+        <v>802</v>
+      </c>
+      <c r="B72" t="s">
+        <v>803</v>
+      </c>
+      <c r="C72" t="s">
+        <v>804</v>
+      </c>
+      <c r="D72" t="s">
+        <v>805</v>
+      </c>
+      <c r="E72" t="s">
+        <v>806</v>
+      </c>
+      <c r="F72">
         <v>4</v>
       </c>
-      <c r="G72" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="L72" s="0">
+      <c r="G72" t="s">
+        <v>807</v>
+      </c>
+      <c r="H72" t="s">
+        <v>808</v>
+      </c>
+      <c r="I72" t="s">
+        <v>809</v>
+      </c>
+      <c r="J72" t="s">
+        <v>810</v>
+      </c>
+      <c r="K72" t="s">
+        <v>811</v>
+      </c>
+      <c r="L72">
         <v>8</v>
       </c>
-      <c r="M72" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="N72" s="0">
+      <c r="M72" t="s">
+        <v>812</v>
+      </c>
+      <c r="N72">
         <v>30</v>
       </c>
-      <c r="O72" s="0" t="s">
-        <v>897</v>
+      <c r="O72" t="s">
+        <v>813</v>
+      </c>
+      <c r="P72" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="F73" s="0">
+        <v>4</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="L73" s="0">
+        <v>8</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="N73" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="F74" s="0">
+        <v>4</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="L74" s="0">
+        <v>8</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="N74" s="0">
+        <v>2</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F75" s="0">
+        <v>4</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L75" s="0">
+        <v>2</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N75" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F76" s="0">
+        <v>4</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L76" s="0">
+        <v>8</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N76" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F77" s="0">
+        <v>4</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L77" s="0">
+        <v>2</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N77" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F78" s="0">
+        <v>4</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L78" s="0">
+        <v>8</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N78" s="0">
+        <v>15</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F79" s="0">
+        <v>4</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L79" s="0">
+        <v>8</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N79" s="0">
+        <v>2</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F80" s="0">
+        <v>4</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L80" s="0">
+        <v>2</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N80" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
